--- a/data/pca/factorExposure/factorExposure_2018-07-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03064083135300226</v>
+        <v>-0.02547765338986445</v>
       </c>
       <c r="C2">
-        <v>0.02534792634664743</v>
+        <v>-0.0174738832109003</v>
       </c>
       <c r="D2">
-        <v>0.02671189654033653</v>
+        <v>0.01803225928704212</v>
       </c>
       <c r="E2">
-        <v>0.003581217438880289</v>
+        <v>0.01550267306869382</v>
       </c>
       <c r="F2">
-        <v>-0.125712074666119</v>
+        <v>0.00486559162450722</v>
       </c>
       <c r="G2">
-        <v>-0.03714518713260283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.05335112801132617</v>
+      </c>
+      <c r="H2">
+        <v>0.05134840543678516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.111968930009815</v>
+        <v>-0.08295517374710669</v>
       </c>
       <c r="C3">
-        <v>-0.03848637956741725</v>
+        <v>0.01341408433310114</v>
       </c>
       <c r="D3">
-        <v>0.08293845266618084</v>
+        <v>0.0219261089106885</v>
       </c>
       <c r="E3">
-        <v>0.01674352397207408</v>
+        <v>0.01419952182066851</v>
       </c>
       <c r="F3">
-        <v>-0.4020775765639773</v>
+        <v>-0.04553632925601189</v>
       </c>
       <c r="G3">
-        <v>-0.1382430820554503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1823972132389376</v>
+      </c>
+      <c r="H3">
+        <v>0.1538103831330881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05358794631916551</v>
+        <v>-0.04760001439329843</v>
       </c>
       <c r="C4">
-        <v>0.02677051848389579</v>
+        <v>-0.003429990301815166</v>
       </c>
       <c r="D4">
-        <v>-0.01733954515167788</v>
+        <v>0.04177033481757447</v>
       </c>
       <c r="E4">
-        <v>0.05805304282121244</v>
+        <v>-0.02314475249993928</v>
       </c>
       <c r="F4">
-        <v>-0.08229402879922884</v>
+        <v>0.04749374307057797</v>
       </c>
       <c r="G4">
-        <v>-0.04212551150640089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04287258508264814</v>
+      </c>
+      <c r="H4">
+        <v>0.05783140883133821</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01361933322413814</v>
+        <v>-0.02629412639638618</v>
       </c>
       <c r="C6">
-        <v>0.007855790084431555</v>
+        <v>-0.003611465937135588</v>
       </c>
       <c r="D6">
-        <v>0.01787859957599483</v>
+        <v>0.0506031671997566</v>
       </c>
       <c r="E6">
-        <v>0.02196383041604182</v>
+        <v>-0.008850742958458032</v>
       </c>
       <c r="F6">
-        <v>-0.0133447976379854</v>
+        <v>0.02970090991630336</v>
       </c>
       <c r="G6">
-        <v>-0.003267185286597619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01444472958043675</v>
+      </c>
+      <c r="H6">
+        <v>0.06086329185035431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02371777256639648</v>
+        <v>-0.02221849342619838</v>
       </c>
       <c r="C7">
-        <v>0.001342301536108611</v>
+        <v>-0.002724231993118124</v>
       </c>
       <c r="D7">
-        <v>0.01507270102685656</v>
+        <v>0.02555033644561139</v>
       </c>
       <c r="E7">
-        <v>0.03293662887377027</v>
+        <v>-0.04194012236755326</v>
       </c>
       <c r="F7">
-        <v>-0.05531970925701681</v>
+        <v>0.001744116541722574</v>
       </c>
       <c r="G7">
-        <v>-0.06066983631488724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02403856329335024</v>
+      </c>
+      <c r="H7">
+        <v>0.0372849301678273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0209902751690929</v>
+        <v>-0.006774356358606418</v>
       </c>
       <c r="C8">
-        <v>0.01599384725901437</v>
+        <v>0.001945424852068182</v>
       </c>
       <c r="D8">
-        <v>0.008197696590642298</v>
+        <v>0.01111233255384807</v>
       </c>
       <c r="E8">
-        <v>0.05277247451030277</v>
+        <v>-0.006966894392550822</v>
       </c>
       <c r="F8">
-        <v>-0.09637477713562057</v>
+        <v>0.01567483541064917</v>
       </c>
       <c r="G8">
-        <v>-0.05403271554145871</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0472712175606666</v>
+      </c>
+      <c r="H8">
+        <v>0.04102582398059411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04214340682541133</v>
+        <v>-0.03861080630487169</v>
       </c>
       <c r="C9">
-        <v>0.02479899478497699</v>
+        <v>0.0004486060787887422</v>
       </c>
       <c r="D9">
-        <v>-0.004909812689264456</v>
+        <v>0.03250306230775331</v>
       </c>
       <c r="E9">
-        <v>0.05483433363983343</v>
+        <v>-0.01180115977403986</v>
       </c>
       <c r="F9">
-        <v>-0.08259920233344566</v>
+        <v>0.0246232960620561</v>
       </c>
       <c r="G9">
-        <v>-0.05387565607441105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05095319218702681</v>
+      </c>
+      <c r="H9">
+        <v>0.05253474466331269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02649702695257456</v>
+        <v>-0.09903441937808531</v>
       </c>
       <c r="C10">
-        <v>-0.04121576516159666</v>
+        <v>0.02875437994898681</v>
       </c>
       <c r="D10">
-        <v>-0.08105783261622952</v>
+        <v>-0.154878966788115</v>
       </c>
       <c r="E10">
-        <v>-0.1033507483598627</v>
+        <v>0.01183480445502027</v>
       </c>
       <c r="F10">
-        <v>-0.05751244911422003</v>
+        <v>-0.0463027178080086</v>
       </c>
       <c r="G10">
-        <v>0.03410118898236451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02127384514406309</v>
+      </c>
+      <c r="H10">
+        <v>0.003241145997249615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03801390726824047</v>
+        <v>-0.02239621219267377</v>
       </c>
       <c r="C11">
-        <v>0.01501489449260247</v>
+        <v>0.008819463777985218</v>
       </c>
       <c r="D11">
-        <v>0.0161414662416926</v>
+        <v>0.03822987745471724</v>
       </c>
       <c r="E11">
-        <v>0.03411461197020352</v>
+        <v>0.0002441286309118411</v>
       </c>
       <c r="F11">
-        <v>-0.04309598117758195</v>
+        <v>0.009917018566189232</v>
       </c>
       <c r="G11">
-        <v>-0.02680288215686201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02637581032408874</v>
+      </c>
+      <c r="H11">
+        <v>0.04424325169180627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04330466612859635</v>
+        <v>-0.03071416952458033</v>
       </c>
       <c r="C12">
-        <v>0.01438666858574046</v>
+        <v>0.007118034623243236</v>
       </c>
       <c r="D12">
-        <v>0.01018968221974638</v>
+        <v>0.03941097929799455</v>
       </c>
       <c r="E12">
-        <v>0.03955949923004617</v>
+        <v>-0.009115607106766111</v>
       </c>
       <c r="F12">
-        <v>-0.03014996156673109</v>
+        <v>0.01620480686816157</v>
       </c>
       <c r="G12">
-        <v>-0.01731858765564982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01192780311949607</v>
+      </c>
+      <c r="H12">
+        <v>0.02324871948630019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02003180905703753</v>
+        <v>-0.02691394539193944</v>
       </c>
       <c r="C13">
-        <v>0.02136652473977818</v>
+        <v>-0.01395156139337786</v>
       </c>
       <c r="D13">
-        <v>0.01362242702571109</v>
+        <v>-0.004427817462098109</v>
       </c>
       <c r="E13">
-        <v>0.003050966587347633</v>
+        <v>0.01288647305736076</v>
       </c>
       <c r="F13">
-        <v>-0.08236568429240543</v>
+        <v>0.00781199305025488</v>
       </c>
       <c r="G13">
-        <v>-0.0348362131261814</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.05638273003472831</v>
+      </c>
+      <c r="H13">
+        <v>0.0558533825352693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01457217462655912</v>
+        <v>-0.01709517579790604</v>
       </c>
       <c r="C14">
-        <v>0.0102359361704872</v>
+        <v>-0.0006344555482575417</v>
       </c>
       <c r="D14">
-        <v>-0.002080002515314472</v>
+        <v>0.00370932593907661</v>
       </c>
       <c r="E14">
-        <v>0.04440258516379744</v>
+        <v>-0.01333769750448332</v>
       </c>
       <c r="F14">
-        <v>-0.05385341775200464</v>
+        <v>0.01154552834665268</v>
       </c>
       <c r="G14">
-        <v>-0.06876666328900757</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04490345800883349</v>
+      </c>
+      <c r="H14">
+        <v>0.001516519046020725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02883379510054471</v>
+        <v>-0.02319177172754778</v>
       </c>
       <c r="C16">
-        <v>0.01878504899255419</v>
+        <v>0.009262764656204341</v>
       </c>
       <c r="D16">
-        <v>0.01706625625968415</v>
+        <v>0.03473364526418832</v>
       </c>
       <c r="E16">
-        <v>0.02752384630672765</v>
+        <v>-0.003210506797329248</v>
       </c>
       <c r="F16">
-        <v>-0.04958105404030245</v>
+        <v>0.01612947725210747</v>
       </c>
       <c r="G16">
-        <v>-0.02898701123294511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02443000056343634</v>
+      </c>
+      <c r="H16">
+        <v>0.03696732729321611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04737129326519653</v>
+        <v>-0.03480431752436052</v>
       </c>
       <c r="C19">
-        <v>0.015703639957061</v>
+        <v>0.0001229924043012591</v>
       </c>
       <c r="D19">
-        <v>0.02046521169201869</v>
+        <v>0.01924979634181005</v>
       </c>
       <c r="E19">
-        <v>0.04561266532137888</v>
+        <v>-0.003735779692644637</v>
       </c>
       <c r="F19">
-        <v>-0.09631079210661841</v>
+        <v>0.0154351674678097</v>
       </c>
       <c r="G19">
-        <v>-0.0377616187144873</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05849480926308356</v>
+      </c>
+      <c r="H19">
+        <v>0.06880493333829533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001574013824338982</v>
+        <v>-0.009723453934275702</v>
       </c>
       <c r="C20">
-        <v>0.01408099432695429</v>
+        <v>-0.006501007065523925</v>
       </c>
       <c r="D20">
-        <v>-0.0006273224559521496</v>
+        <v>0.007280709384255744</v>
       </c>
       <c r="E20">
-        <v>0.03985802269798903</v>
+        <v>-0.003700958374100069</v>
       </c>
       <c r="F20">
-        <v>-0.07115078945088278</v>
+        <v>0.01022348955651636</v>
       </c>
       <c r="G20">
-        <v>-0.07299096262192779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05005854066366498</v>
+      </c>
+      <c r="H20">
+        <v>0.01112363192363726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001092715925045895</v>
+        <v>-0.01782612432335265</v>
       </c>
       <c r="C21">
-        <v>-0.006958855327352766</v>
+        <v>-0.007195649877906355</v>
       </c>
       <c r="D21">
-        <v>0.008261100560195174</v>
+        <v>0.008765564197748507</v>
       </c>
       <c r="E21">
-        <v>0.03448433977505934</v>
+        <v>-0.01665493457671609</v>
       </c>
       <c r="F21">
-        <v>-0.05835423478772372</v>
+        <v>0.003589550103647369</v>
       </c>
       <c r="G21">
-        <v>-0.0274722477025927</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05172141159747276</v>
+      </c>
+      <c r="H21">
+        <v>0.0325506269473219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03303659669172041</v>
+        <v>-0.0207830417043899</v>
       </c>
       <c r="C24">
-        <v>0.01970743297736817</v>
+        <v>0.003470449281283154</v>
       </c>
       <c r="D24">
-        <v>0.009430492659702097</v>
+        <v>0.03407106236727706</v>
       </c>
       <c r="E24">
-        <v>0.01094167598457414</v>
+        <v>-0.0002029933944359792</v>
       </c>
       <c r="F24">
-        <v>-0.04326619061434062</v>
+        <v>0.009964891337245147</v>
       </c>
       <c r="G24">
-        <v>-0.02287514933403509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02128677347144217</v>
+      </c>
+      <c r="H24">
+        <v>0.04009493409097505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03188791490188007</v>
+        <v>-0.03035006028857354</v>
       </c>
       <c r="C25">
-        <v>0.01102152369553754</v>
+        <v>0.001402694219022292</v>
       </c>
       <c r="D25">
-        <v>0.01685184775149671</v>
+        <v>0.03333575994618997</v>
       </c>
       <c r="E25">
-        <v>0.03900667438902853</v>
+        <v>-0.004544687134453105</v>
       </c>
       <c r="F25">
-        <v>-0.04165443740078302</v>
+        <v>0.01546180202030355</v>
       </c>
       <c r="G25">
-        <v>-0.008895142012877201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02538955219549349</v>
+      </c>
+      <c r="H25">
+        <v>0.04365580829524388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02052250272383896</v>
+        <v>-0.02127169684259735</v>
       </c>
       <c r="C26">
-        <v>0.003586090118581769</v>
+        <v>-0.01656070896181756</v>
       </c>
       <c r="D26">
-        <v>0.03138910400052316</v>
+        <v>0.003257255767878919</v>
       </c>
       <c r="E26">
-        <v>0.02246633744159293</v>
+        <v>0.001730633932806112</v>
       </c>
       <c r="F26">
-        <v>-0.068137300552746</v>
+        <v>0.00030533704453568</v>
       </c>
       <c r="G26">
-        <v>-0.03426537452023406</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03295464971704054</v>
+      </c>
+      <c r="H26">
+        <v>0.01719763106363805</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.0671861381415006</v>
+        <v>-0.02660484501216621</v>
       </c>
       <c r="C27">
-        <v>0.03130999954663935</v>
+        <v>0.01043535098688307</v>
       </c>
       <c r="D27">
-        <v>-0.02925012731555941</v>
+        <v>0.01459542713422974</v>
       </c>
       <c r="E27">
-        <v>0.04005455925130357</v>
+        <v>-0.008305237427886653</v>
       </c>
       <c r="F27">
-        <v>-0.05137513492529699</v>
+        <v>0.01790054963737542</v>
       </c>
       <c r="G27">
-        <v>-0.03756834184252524</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01924503106823024</v>
+      </c>
+      <c r="H27">
+        <v>0.005266847469082416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0437849400005471</v>
+        <v>-0.1469595169197672</v>
       </c>
       <c r="C28">
-        <v>-0.04615770799080653</v>
+        <v>0.02903704702577481</v>
       </c>
       <c r="D28">
-        <v>-0.1152738977024477</v>
+        <v>-0.2248738256204069</v>
       </c>
       <c r="E28">
-        <v>-0.1458243654435547</v>
+        <v>0.01034549740325143</v>
       </c>
       <c r="F28">
-        <v>-0.05855823825893738</v>
+        <v>-0.05365095248451381</v>
       </c>
       <c r="G28">
-        <v>0.0227443289730145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.009637814891966624</v>
+      </c>
+      <c r="H28">
+        <v>-0.01387414949140094</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02227861439878019</v>
+        <v>-0.0220277722807478</v>
       </c>
       <c r="C29">
-        <v>0.01163876099736781</v>
+        <v>0.001550405238499138</v>
       </c>
       <c r="D29">
-        <v>-0.005192695886408374</v>
+        <v>0.004991259476505707</v>
       </c>
       <c r="E29">
-        <v>0.05729122274708393</v>
+        <v>-0.01351356522499286</v>
       </c>
       <c r="F29">
-        <v>-0.04310976130947698</v>
+        <v>0.01462899808066837</v>
       </c>
       <c r="G29">
-        <v>-0.05904947423477454</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.04238258049208176</v>
+      </c>
+      <c r="H29">
+        <v>-0.0019383732090634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09634590255835497</v>
+        <v>-0.05377538765950332</v>
       </c>
       <c r="C30">
-        <v>0.06130740643470722</v>
+        <v>-0.003473772659030008</v>
       </c>
       <c r="D30">
-        <v>0.01535533108007833</v>
+        <v>0.06966584315422222</v>
       </c>
       <c r="E30">
-        <v>0.0734878579648644</v>
+        <v>0.02835173230099197</v>
       </c>
       <c r="F30">
-        <v>-0.08344657350778463</v>
+        <v>0.05241131174607783</v>
       </c>
       <c r="G30">
-        <v>-0.05709858419317111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05761828396273282</v>
+      </c>
+      <c r="H30">
+        <v>0.06304324361455624</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06305695825823396</v>
+        <v>-0.05542801254331781</v>
       </c>
       <c r="C31">
-        <v>0.02444250475480236</v>
+        <v>0.01532276537693122</v>
       </c>
       <c r="D31">
-        <v>0.02927693474138767</v>
+        <v>0.02601986199349004</v>
       </c>
       <c r="E31">
-        <v>0.007986383289498779</v>
+        <v>0.004577053351247562</v>
       </c>
       <c r="F31">
-        <v>-0.04435666293547314</v>
+        <v>0.01287239018558079</v>
       </c>
       <c r="G31">
-        <v>-0.06086241780414599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01841354926169118</v>
+      </c>
+      <c r="H31">
+        <v>0.009234461543436068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02279964687176175</v>
+        <v>-0.01133615556230047</v>
       </c>
       <c r="C32">
-        <v>0.01906367593146199</v>
+        <v>0.01361750311994984</v>
       </c>
       <c r="D32">
-        <v>0.00887208893801225</v>
+        <v>0.001286837438890304</v>
       </c>
       <c r="E32">
-        <v>0.08637950525159202</v>
+        <v>-0.0316764877352785</v>
       </c>
       <c r="F32">
-        <v>-0.05914441558916361</v>
+        <v>0.03223888154135782</v>
       </c>
       <c r="G32">
-        <v>-0.04627539710295624</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03478564726748534</v>
+      </c>
+      <c r="H32">
+        <v>0.06014026983718215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05195919251889388</v>
+        <v>-0.03986837085994391</v>
       </c>
       <c r="C33">
-        <v>0.01045523264013277</v>
+        <v>0.001674348447675277</v>
       </c>
       <c r="D33">
-        <v>0.04816059652782244</v>
+        <v>0.03245454298613791</v>
       </c>
       <c r="E33">
-        <v>0.0445450597042378</v>
+        <v>0.02382944170970605</v>
       </c>
       <c r="F33">
-        <v>-0.09034639407214345</v>
+        <v>0.001702193689370371</v>
       </c>
       <c r="G33">
-        <v>-0.05738238847996773</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05000855067368865</v>
+      </c>
+      <c r="H33">
+        <v>0.04104682022696456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03509243461091367</v>
+        <v>-0.02758649250450238</v>
       </c>
       <c r="C34">
-        <v>0.02115948941449843</v>
+        <v>0.01768595515206351</v>
       </c>
       <c r="D34">
-        <v>0.012736097538954</v>
+        <v>0.03466826969453365</v>
       </c>
       <c r="E34">
-        <v>0.03576157678674981</v>
+        <v>-0.009357117369374163</v>
       </c>
       <c r="F34">
-        <v>-0.05643231998187941</v>
+        <v>0.0170574425974298</v>
       </c>
       <c r="G34">
-        <v>-0.01420180167873001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02340332394235571</v>
+      </c>
+      <c r="H34">
+        <v>0.03698210955483735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01658566015238299</v>
+        <v>-0.02162535821040528</v>
       </c>
       <c r="C36">
-        <v>0.005787875989493835</v>
+        <v>-0.003557271597237812</v>
       </c>
       <c r="D36">
-        <v>-0.001406444054628106</v>
+        <v>-5.239946688622339e-05</v>
       </c>
       <c r="E36">
-        <v>0.03285482364734231</v>
+        <v>-0.006435214292022098</v>
       </c>
       <c r="F36">
-        <v>-0.03300929240164799</v>
+        <v>0.003881308956658477</v>
       </c>
       <c r="G36">
-        <v>-0.03952275776283077</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02056713826599186</v>
+      </c>
+      <c r="H36">
+        <v>0.006926837463472819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0008288691017290203</v>
+        <v>-0.02361976876111843</v>
       </c>
       <c r="C38">
-        <v>-0.01285937917554187</v>
+        <v>0.01651833798192395</v>
       </c>
       <c r="D38">
-        <v>0.0113682745160097</v>
+        <v>0.0039791554095099</v>
       </c>
       <c r="E38">
-        <v>-0.01529133642246922</v>
+        <v>0.0009858254606921377</v>
       </c>
       <c r="F38">
-        <v>-0.04784951587107165</v>
+        <v>0.005765090470559766</v>
       </c>
       <c r="G38">
-        <v>0.001744398987266013</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01927045227282189</v>
+      </c>
+      <c r="H38">
+        <v>0.04001270665390789</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04393366093570336</v>
+        <v>-0.01999756639653413</v>
       </c>
       <c r="C39">
-        <v>0.03729385798816759</v>
+        <v>0.001615708379047008</v>
       </c>
       <c r="D39">
-        <v>0.02570693795788671</v>
+        <v>0.07513370652645528</v>
       </c>
       <c r="E39">
-        <v>0.03888918777163566</v>
+        <v>0.001363135596296501</v>
       </c>
       <c r="F39">
-        <v>-0.06548271599171183</v>
+        <v>0.02135059900346642</v>
       </c>
       <c r="G39">
-        <v>-0.02594850203422877</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04486377829824498</v>
+      </c>
+      <c r="H39">
+        <v>0.07073732411709167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.04031258253822617</v>
+        <v>-0.0342662227394975</v>
       </c>
       <c r="C40">
-        <v>0.06262264498105019</v>
+        <v>0.002044201911437814</v>
       </c>
       <c r="D40">
-        <v>0.03645583456969118</v>
+        <v>0.01756236871498755</v>
       </c>
       <c r="E40">
-        <v>-0.005860422347508487</v>
+        <v>0.02417853003611856</v>
       </c>
       <c r="F40">
-        <v>-0.08182465883887791</v>
+        <v>0.02808556154224867</v>
       </c>
       <c r="G40">
-        <v>-0.05138815021980356</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02654733694532909</v>
+      </c>
+      <c r="H40">
+        <v>0.06332578830554685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0001627372071046736</v>
+        <v>-0.01134352797457719</v>
       </c>
       <c r="C41">
-        <v>-0.001807838024987042</v>
+        <v>-0.0003698770416849443</v>
       </c>
       <c r="D41">
-        <v>0.006891018058920917</v>
+        <v>-0.01225833729116102</v>
       </c>
       <c r="E41">
-        <v>0.009814709048492611</v>
+        <v>0.00199648051198478</v>
       </c>
       <c r="F41">
-        <v>-0.003957106968473201</v>
+        <v>-0.001869677005887295</v>
       </c>
       <c r="G41">
-        <v>-0.04682437193509077</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.00383694653266833</v>
+      </c>
+      <c r="H41">
+        <v>-0.006194298434579245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3519678439758031</v>
+        <v>-0.1980185761668881</v>
       </c>
       <c r="C42">
-        <v>-0.6821635621247309</v>
+        <v>-0.07450877352061328</v>
       </c>
       <c r="D42">
-        <v>0.5311713579705192</v>
+        <v>0.3646954859742062</v>
       </c>
       <c r="E42">
-        <v>-0.1771649715438303</v>
+        <v>0.235517855304539</v>
       </c>
       <c r="F42">
-        <v>0.234706992370522</v>
+        <v>-0.8396849184437656</v>
       </c>
       <c r="G42">
-        <v>-0.06597824362351694</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.2023392888744822</v>
+      </c>
+      <c r="H42">
+        <v>-0.045926129636781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.007720323827968743</v>
+        <v>-0.01118496672226101</v>
       </c>
       <c r="C43">
-        <v>-0.007504594546319547</v>
+        <v>-0.001798166411134167</v>
       </c>
       <c r="D43">
-        <v>0.01609730241761171</v>
+        <v>-0.01361623474070689</v>
       </c>
       <c r="E43">
-        <v>0.01193658851879024</v>
+        <v>0.006648716555880804</v>
       </c>
       <c r="F43">
-        <v>-0.02065344597346203</v>
+        <v>-0.009373276067866568</v>
       </c>
       <c r="G43">
-        <v>-0.04349521206174611</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.007080667520105153</v>
+      </c>
+      <c r="H43">
+        <v>0.0008676732343875777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01769086729726671</v>
+        <v>-0.0139040224599521</v>
       </c>
       <c r="C44">
-        <v>-0.004172772626237296</v>
+        <v>0.001376460328289264</v>
       </c>
       <c r="D44">
-        <v>0.02017120422802976</v>
+        <v>0.0238081773330302</v>
       </c>
       <c r="E44">
-        <v>0.02942676374553869</v>
+        <v>-0.005073801840181741</v>
       </c>
       <c r="F44">
-        <v>-0.1113555246773582</v>
+        <v>-0.006239152112283951</v>
       </c>
       <c r="G44">
-        <v>-0.07184689332765659</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03986265934036388</v>
+      </c>
+      <c r="H44">
+        <v>0.05654862802828095</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02030146093475294</v>
+        <v>-0.01878492679698895</v>
       </c>
       <c r="C46">
-        <v>0.01132345078948108</v>
+        <v>-0.003529108069081278</v>
       </c>
       <c r="D46">
-        <v>0.02495218476085484</v>
+        <v>0.01398444500552586</v>
       </c>
       <c r="E46">
-        <v>0.05331394792466697</v>
+        <v>-0.00126274859971645</v>
       </c>
       <c r="F46">
-        <v>-0.05834266884127841</v>
+        <v>0.01424272806229861</v>
       </c>
       <c r="G46">
-        <v>-0.06268733296379152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04980998103037062</v>
+      </c>
+      <c r="H46">
+        <v>0.0123633634744994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09791278299096118</v>
+        <v>-0.07577747791890267</v>
       </c>
       <c r="C47">
-        <v>0.03077424309883666</v>
+        <v>0.03065870145727013</v>
       </c>
       <c r="D47">
-        <v>0.01035441141104083</v>
+        <v>0.04345883284032204</v>
       </c>
       <c r="E47">
-        <v>0.02416545859561956</v>
+        <v>-0.0007889380108426725</v>
       </c>
       <c r="F47">
-        <v>-0.02068761473444394</v>
+        <v>0.02345889531762632</v>
       </c>
       <c r="G47">
-        <v>-0.07982802791739328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.006766695050429375</v>
+      </c>
+      <c r="H47">
+        <v>-0.0220885137179654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01871449378598921</v>
+        <v>-0.02327181438069718</v>
       </c>
       <c r="C48">
-        <v>0.007274773463184199</v>
+        <v>0.007158156460361983</v>
       </c>
       <c r="D48">
-        <v>0.01414794881994178</v>
+        <v>0.006688146929407898</v>
       </c>
       <c r="E48">
-        <v>0.0311403425350578</v>
+        <v>-0.001295358521786073</v>
       </c>
       <c r="F48">
-        <v>-0.05134142337739609</v>
+        <v>0.008306850023588074</v>
       </c>
       <c r="G48">
-        <v>-0.02367035606122797</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02718584984720848</v>
+      </c>
+      <c r="H48">
+        <v>0.01710551189134427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0914070604350483</v>
+        <v>-0.07386688979477699</v>
       </c>
       <c r="C50">
-        <v>0.02704066365093559</v>
+        <v>0.02777703437173093</v>
       </c>
       <c r="D50">
-        <v>0.02210230854837989</v>
+        <v>0.04404685541124775</v>
       </c>
       <c r="E50">
-        <v>0.03655876963449697</v>
+        <v>-0.0194319106083574</v>
       </c>
       <c r="F50">
-        <v>-0.05238377429705098</v>
+        <v>0.01773671437125454</v>
       </c>
       <c r="G50">
-        <v>-0.04017982075741925</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0166079164126787</v>
+      </c>
+      <c r="H50">
+        <v>-0.001159676990569037</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01852111508276779</v>
+        <v>-0.01932180745093219</v>
       </c>
       <c r="C51">
-        <v>-0.009802495103949449</v>
+        <v>-0.001127661358164913</v>
       </c>
       <c r="D51">
-        <v>0.01343036309583474</v>
+        <v>-0.007801964842669541</v>
       </c>
       <c r="E51">
-        <v>0.002374807658487986</v>
+        <v>0.0008879704612233714</v>
       </c>
       <c r="F51">
-        <v>-0.1180319187075699</v>
+        <v>-0.01397230109040565</v>
       </c>
       <c r="G51">
-        <v>-0.04201967306316605</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.04874667191146515</v>
+      </c>
+      <c r="H51">
+        <v>0.05045185770948751</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1054418485455023</v>
+        <v>-0.0928862048991473</v>
       </c>
       <c r="C53">
-        <v>0.04835623198308153</v>
+        <v>0.03759854057559832</v>
       </c>
       <c r="D53">
-        <v>0.01570562110405887</v>
+        <v>0.0789739936592498</v>
       </c>
       <c r="E53">
-        <v>0.03929831113356869</v>
+        <v>-0.008695415073217468</v>
       </c>
       <c r="F53">
-        <v>0.05005236140294776</v>
+        <v>0.05089524635810772</v>
       </c>
       <c r="G53">
-        <v>-0.01996607445362411</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03989270749622743</v>
+      </c>
+      <c r="H53">
+        <v>-0.04272882344021754</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01601271610159835</v>
+        <v>-0.02583940034249438</v>
       </c>
       <c r="C54">
-        <v>0.01068100229824227</v>
+        <v>0.01146643549016537</v>
       </c>
       <c r="D54">
-        <v>-0.004980783135090771</v>
+        <v>-0.01277237457715166</v>
       </c>
       <c r="E54">
-        <v>0.03350502460828478</v>
+        <v>-0.006810745251281831</v>
       </c>
       <c r="F54">
-        <v>-0.05878304091990964</v>
+        <v>0.004794315962977462</v>
       </c>
       <c r="G54">
-        <v>-0.05939269378442419</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0404574556189456</v>
+      </c>
+      <c r="H54">
+        <v>-0.004008362818855507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1027066245221077</v>
+        <v>-0.07656883853682449</v>
       </c>
       <c r="C55">
-        <v>0.02807294401252879</v>
+        <v>0.0322925612764708</v>
       </c>
       <c r="D55">
-        <v>-0.004779750366984008</v>
+        <v>0.07611250364487125</v>
       </c>
       <c r="E55">
-        <v>0.06167506629125463</v>
+        <v>-0.01534719730249607</v>
       </c>
       <c r="F55">
-        <v>0.03939356948402983</v>
+        <v>0.04039903176693251</v>
       </c>
       <c r="G55">
-        <v>-0.07710058454267989</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01649856933181938</v>
+      </c>
+      <c r="H55">
+        <v>-0.05214511427324793</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1468388587529194</v>
+        <v>-0.1268930487716487</v>
       </c>
       <c r="C56">
-        <v>0.09120992217271787</v>
+        <v>0.05740000682395491</v>
       </c>
       <c r="D56">
-        <v>-0.01951997360916229</v>
+        <v>0.09979969363605337</v>
       </c>
       <c r="E56">
-        <v>0.05417469851819079</v>
+        <v>-0.01296215826347187</v>
       </c>
       <c r="F56">
-        <v>0.1109458700038123</v>
+        <v>0.08260982191775153</v>
       </c>
       <c r="G56">
-        <v>0.03001962008749927</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07302397152773542</v>
+      </c>
+      <c r="H56">
+        <v>-0.04968183860070976</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0495628803142067</v>
+        <v>-0.04148310947135095</v>
       </c>
       <c r="C57">
-        <v>0.000472190866064197</v>
+        <v>-0.009148867427072596</v>
       </c>
       <c r="D57">
-        <v>0.01371277343898878</v>
+        <v>0.02620992726331983</v>
       </c>
       <c r="E57">
-        <v>-0.007848190203917905</v>
+        <v>0.00420917413265409</v>
       </c>
       <c r="F57">
-        <v>-0.08632953814621722</v>
+        <v>0.01275402969806274</v>
       </c>
       <c r="G57">
-        <v>-0.0665055492183961</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05682741611478293</v>
+      </c>
+      <c r="H57">
+        <v>0.04161523691953316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2106321706569777</v>
+        <v>-0.1505226317830437</v>
       </c>
       <c r="C58">
-        <v>0.05908227749941233</v>
+        <v>0.04483756360764342</v>
       </c>
       <c r="D58">
-        <v>0.1353295027304292</v>
+        <v>0.1484927884423376</v>
       </c>
       <c r="E58">
-        <v>0.144354917852213</v>
+        <v>0.1684047185005138</v>
       </c>
       <c r="F58">
-        <v>-0.3200431210108367</v>
+        <v>-0.04109874142424952</v>
       </c>
       <c r="G58">
-        <v>-0.1371541072892299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8268572301630581</v>
+      </c>
+      <c r="H58">
+        <v>-0.3674700970597543</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04697149350615712</v>
+        <v>-0.1536754160664346</v>
       </c>
       <c r="C59">
-        <v>-0.0006995170740365409</v>
+        <v>0.03734718456358005</v>
       </c>
       <c r="D59">
-        <v>-0.09948946508769109</v>
+        <v>-0.2256503617948009</v>
       </c>
       <c r="E59">
-        <v>-0.136259897744258</v>
+        <v>0.0285461386723872</v>
       </c>
       <c r="F59">
-        <v>-0.07342162391650112</v>
+        <v>-0.03090960384271242</v>
       </c>
       <c r="G59">
-        <v>0.03375798247637632</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.005035295403681563</v>
+      </c>
+      <c r="H59">
+        <v>0.01422241788815529</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1697613638707369</v>
+        <v>-0.1769114187418865</v>
       </c>
       <c r="C60">
-        <v>0.03966808352805758</v>
+        <v>0.03886257333737058</v>
       </c>
       <c r="D60">
-        <v>0.06066531252021774</v>
+        <v>0.0171772126490481</v>
       </c>
       <c r="E60">
-        <v>-0.03429785699283354</v>
+        <v>0.04667511714825361</v>
       </c>
       <c r="F60">
-        <v>-0.1654226661267572</v>
+        <v>0.03808694250721691</v>
       </c>
       <c r="G60">
-        <v>0.3047738239357307</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.04034276468915492</v>
+      </c>
+      <c r="H60">
+        <v>0.3951233252583162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02292428822859543</v>
+        <v>-0.02140714667563956</v>
       </c>
       <c r="C61">
-        <v>0.006239019107250159</v>
+        <v>0.006555505990010935</v>
       </c>
       <c r="D61">
-        <v>0.01349622479504294</v>
+        <v>0.04127932776068932</v>
       </c>
       <c r="E61">
-        <v>0.02181816011283436</v>
+        <v>-0.005263278864674031</v>
       </c>
       <c r="F61">
-        <v>-0.03394932563310196</v>
+        <v>0.01685202831356311</v>
       </c>
       <c r="G61">
-        <v>-0.02182382696562278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02630387538098656</v>
+      </c>
+      <c r="H61">
+        <v>0.04918468825077642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01646074091345792</v>
+        <v>-0.01297162595932728</v>
       </c>
       <c r="C63">
-        <v>0.01238062050081386</v>
+        <v>-0.002003794026884586</v>
       </c>
       <c r="D63">
-        <v>0.01594824308882965</v>
+        <v>0.01476496025870899</v>
       </c>
       <c r="E63">
-        <v>0.04464198981831999</v>
+        <v>-0.005165900228539822</v>
       </c>
       <c r="F63">
-        <v>-0.01535989693373161</v>
+        <v>0.01524668355250651</v>
       </c>
       <c r="G63">
-        <v>-0.0407287890339719</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01754295558446028</v>
+      </c>
+      <c r="H63">
+        <v>0.002059258907310999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03614785489387851</v>
+        <v>-0.04055999916579672</v>
       </c>
       <c r="C64">
-        <v>0.001852851230816364</v>
+        <v>0.01016153475987758</v>
       </c>
       <c r="D64">
-        <v>-0.01222120004205866</v>
+        <v>0.03853195355129656</v>
       </c>
       <c r="E64">
-        <v>0.0575001572086988</v>
+        <v>-0.01173638450164052</v>
       </c>
       <c r="F64">
-        <v>-0.01688017907312938</v>
+        <v>0.00494229758154319</v>
       </c>
       <c r="G64">
-        <v>-0.06068580897147122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.007593120882729646</v>
+      </c>
+      <c r="H64">
+        <v>0.03695664007625881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01486951607232643</v>
+        <v>-0.02919147880814055</v>
       </c>
       <c r="C65">
-        <v>0.009394104876153395</v>
+        <v>-0.004246112137447773</v>
       </c>
       <c r="D65">
-        <v>0.01914505696856442</v>
+        <v>0.05944720417887107</v>
       </c>
       <c r="E65">
-        <v>0.02212722986553825</v>
+        <v>-0.01103730161067837</v>
       </c>
       <c r="F65">
-        <v>-0.007903301512700583</v>
+        <v>0.03342881357982355</v>
       </c>
       <c r="G65">
-        <v>0.0008238659267663284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.003290905977573432</v>
+      </c>
+      <c r="H65">
+        <v>0.06041269168591105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04708893515917369</v>
+        <v>-0.02647950731645024</v>
       </c>
       <c r="C66">
-        <v>0.03801757170122508</v>
+        <v>0.006488643721928064</v>
       </c>
       <c r="D66">
-        <v>0.02656496723995206</v>
+        <v>0.08719563921875355</v>
       </c>
       <c r="E66">
-        <v>0.03546364717661945</v>
+        <v>0.002266377869747778</v>
       </c>
       <c r="F66">
-        <v>-0.05999005124194939</v>
+        <v>0.03846219078390475</v>
       </c>
       <c r="G66">
-        <v>-0.01655512744715144</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03771501198845121</v>
+      </c>
+      <c r="H66">
+        <v>0.07310688636297366</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01469183337977814</v>
+        <v>-0.04404731960637088</v>
       </c>
       <c r="C67">
-        <v>-0.008612202235307082</v>
+        <v>0.01993412527271335</v>
       </c>
       <c r="D67">
-        <v>0.007226846076724106</v>
+        <v>-0.00222325246366993</v>
       </c>
       <c r="E67">
-        <v>-0.03774650629709619</v>
+        <v>0.00430296000587172</v>
       </c>
       <c r="F67">
-        <v>-0.03554663054387545</v>
+        <v>0.01131730138265209</v>
       </c>
       <c r="G67">
-        <v>0.01218653438186671</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.002052317100333797</v>
+      </c>
+      <c r="H67">
+        <v>0.04012912434065431</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06322367494475205</v>
+        <v>-0.155214615451251</v>
       </c>
       <c r="C68">
-        <v>-0.01575296063662875</v>
+        <v>0.01747744248550694</v>
       </c>
       <c r="D68">
-        <v>-0.1363148987071083</v>
+        <v>-0.2219473002928901</v>
       </c>
       <c r="E68">
-        <v>-0.1398124347687921</v>
+        <v>0.0222794017205689</v>
       </c>
       <c r="F68">
-        <v>-0.05704432798329388</v>
+        <v>-0.0501200998078825</v>
       </c>
       <c r="G68">
-        <v>0.07455775539370157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01752542716774965</v>
+      </c>
+      <c r="H68">
+        <v>-0.03797685904850845</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07157707315125954</v>
+        <v>-0.05852783309428783</v>
       </c>
       <c r="C69">
-        <v>0.03412915298140031</v>
+        <v>0.02887653254826496</v>
       </c>
       <c r="D69">
-        <v>0.008365271318415734</v>
+        <v>0.03856869506583307</v>
       </c>
       <c r="E69">
-        <v>0.003113221042115772</v>
+        <v>0.001516417806669207</v>
       </c>
       <c r="F69">
-        <v>-0.0180742960406423</v>
+        <v>0.03067183950153594</v>
       </c>
       <c r="G69">
-        <v>-0.08420600906863897</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01310360894784022</v>
+      </c>
+      <c r="H69">
+        <v>0.001363858156600448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07247797741798088</v>
+        <v>-0.146423850847144</v>
       </c>
       <c r="C71">
-        <v>-0.03370291223127666</v>
+        <v>0.02511084179623638</v>
       </c>
       <c r="D71">
-        <v>-0.1178638078485448</v>
+        <v>-0.2001019619512166</v>
       </c>
       <c r="E71">
-        <v>-0.1960595843283004</v>
+        <v>0.02838852438538333</v>
       </c>
       <c r="F71">
-        <v>-0.07975852374409462</v>
+        <v>-0.06009627871966153</v>
       </c>
       <c r="G71">
-        <v>0.03793012514599613</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01624767411281909</v>
+      </c>
+      <c r="H71">
+        <v>-0.03089034037249453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1145079432842679</v>
+        <v>-0.08348587369437196</v>
       </c>
       <c r="C72">
-        <v>0.08748636921584048</v>
+        <v>0.04079662359289393</v>
       </c>
       <c r="D72">
-        <v>-0.003107283450457434</v>
+        <v>0.07484373032041357</v>
       </c>
       <c r="E72">
-        <v>0.02653791924654281</v>
+        <v>0.006944806076014247</v>
       </c>
       <c r="F72">
-        <v>-0.1067605598412628</v>
+        <v>0.08107008293641436</v>
       </c>
       <c r="G72">
-        <v>0.05604309526521088</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05589074173801042</v>
+      </c>
+      <c r="H72">
+        <v>0.1664879124103258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2537662479468325</v>
+        <v>-0.2409298119154558</v>
       </c>
       <c r="C73">
-        <v>0.04459710095652177</v>
+        <v>0.04981099874116979</v>
       </c>
       <c r="D73">
-        <v>0.06021531727792102</v>
+        <v>0.05905344260542035</v>
       </c>
       <c r="E73">
-        <v>-0.1134197681684375</v>
+        <v>0.07848986227887264</v>
       </c>
       <c r="F73">
-        <v>-0.2865521764805968</v>
+        <v>0.03489227254228593</v>
       </c>
       <c r="G73">
-        <v>0.4177664620203695</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.05788831428317742</v>
+      </c>
+      <c r="H73">
+        <v>0.5130144847580985</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1414346776725894</v>
+        <v>-0.1192503518891986</v>
       </c>
       <c r="C74">
-        <v>0.04349454629849508</v>
+        <v>0.05367007565959704</v>
       </c>
       <c r="D74">
-        <v>-0.0155634259350504</v>
+        <v>0.09965427318404925</v>
       </c>
       <c r="E74">
-        <v>0.03123499313695287</v>
+        <v>-0.009190440100931591</v>
       </c>
       <c r="F74">
-        <v>0.07199763135459145</v>
+        <v>0.06185527965920973</v>
       </c>
       <c r="G74">
-        <v>0.02705448714060332</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05565518753328755</v>
+      </c>
+      <c r="H74">
+        <v>-0.03439260202822605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2338649175093855</v>
+        <v>-0.2285895167165909</v>
       </c>
       <c r="C75">
-        <v>0.1498833402945329</v>
+        <v>0.1045286304205853</v>
       </c>
       <c r="D75">
-        <v>-0.02340311578797808</v>
+        <v>0.1593954888154052</v>
       </c>
       <c r="E75">
-        <v>0.05681850696651628</v>
+        <v>0.001446318734441417</v>
       </c>
       <c r="F75">
-        <v>0.1357066135346787</v>
+        <v>0.1486997343084414</v>
       </c>
       <c r="G75">
-        <v>0.002224490102291321</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1249179955704751</v>
+      </c>
+      <c r="H75">
+        <v>-0.1172339299787197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2850912578936433</v>
+        <v>-0.2029169230010637</v>
       </c>
       <c r="C76">
-        <v>0.1428042292570125</v>
+        <v>0.09794896158389017</v>
       </c>
       <c r="D76">
-        <v>-0.09460795751139608</v>
+        <v>0.1538675219871472</v>
       </c>
       <c r="E76">
-        <v>0.07761559435438947</v>
+        <v>-0.04872671655599916</v>
       </c>
       <c r="F76">
-        <v>0.1866929115083784</v>
+        <v>0.1445935392844944</v>
       </c>
       <c r="G76">
-        <v>-0.01565237235324206</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1221896882502469</v>
+      </c>
+      <c r="H76">
+        <v>-0.1265265288785875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1394858478864371</v>
+        <v>-0.07251192239662846</v>
       </c>
       <c r="C77">
-        <v>-0.03195203160239882</v>
+        <v>0.01002311555927032</v>
       </c>
       <c r="D77">
-        <v>0.08199320919133449</v>
+        <v>0.06095533766779587</v>
       </c>
       <c r="E77">
-        <v>0.07081563050917974</v>
+        <v>0.01678374301595674</v>
       </c>
       <c r="F77">
-        <v>-0.1822824912829183</v>
+        <v>-0.03352687174022321</v>
       </c>
       <c r="G77">
-        <v>-0.1500049713329306</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1003495345055499</v>
+      </c>
+      <c r="H77">
+        <v>-0.002394781249173939</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0619704408810495</v>
+        <v>-0.03981501213914652</v>
       </c>
       <c r="C78">
-        <v>0.02203269071290666</v>
+        <v>0.01078167453943781</v>
       </c>
       <c r="D78">
-        <v>0.03182768381334222</v>
+        <v>0.04811755034681459</v>
       </c>
       <c r="E78">
-        <v>0.09656783853564264</v>
+        <v>-0.008002589656653136</v>
       </c>
       <c r="F78">
-        <v>-0.05218816806557134</v>
+        <v>0.02072760572993532</v>
       </c>
       <c r="G78">
-        <v>-0.0378344381383889</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05941583158360221</v>
+      </c>
+      <c r="H78">
+        <v>0.06653579687211582</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.129550612982124</v>
+        <v>-0.1420035452899207</v>
       </c>
       <c r="C80">
-        <v>-0.5665270824788535</v>
+        <v>0.03981598970625441</v>
       </c>
       <c r="D80">
-        <v>-0.588996335156987</v>
+        <v>0.03802398645284724</v>
       </c>
       <c r="E80">
-        <v>0.5239032182371521</v>
+        <v>-0.9360737599211415</v>
       </c>
       <c r="F80">
-        <v>-0.03659424926301826</v>
+        <v>-0.2531640564486595</v>
       </c>
       <c r="G80">
-        <v>0.09738994272388128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1200578822955402</v>
+      </c>
+      <c r="H80">
+        <v>0.01045993019947256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1742281627207534</v>
+        <v>-0.1495030875032358</v>
       </c>
       <c r="C81">
-        <v>0.1032710693499755</v>
+        <v>0.06744420149748012</v>
       </c>
       <c r="D81">
-        <v>-0.0443500939694122</v>
+        <v>0.09943263472910102</v>
       </c>
       <c r="E81">
-        <v>0.04117737653863734</v>
+        <v>-0.01815445765518957</v>
       </c>
       <c r="F81">
-        <v>0.1302604325403346</v>
+        <v>0.09073863923289351</v>
       </c>
       <c r="G81">
-        <v>0.01550301639295705</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.07825961607754414</v>
+      </c>
+      <c r="H81">
+        <v>-0.08031713192798152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.0511093267810724</v>
+        <v>-0.03380331960569337</v>
       </c>
       <c r="C83">
-        <v>-0.003545576349412307</v>
+        <v>0.006392111155571634</v>
       </c>
       <c r="D83">
-        <v>0.03632084526990863</v>
+        <v>0.02002189820919381</v>
       </c>
       <c r="E83">
-        <v>0.01405314649962063</v>
+        <v>0.005801105701201658</v>
       </c>
       <c r="F83">
-        <v>-0.05766400713191542</v>
+        <v>0.001700493285539527</v>
       </c>
       <c r="G83">
-        <v>-0.03330243173500118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04330703666379576</v>
+      </c>
+      <c r="H83">
+        <v>0.04132519932914431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.25208713696341</v>
+        <v>-0.2154660814303697</v>
       </c>
       <c r="C85">
-        <v>0.130934516417915</v>
+        <v>0.08729064870832594</v>
       </c>
       <c r="D85">
-        <v>-0.04249188039795548</v>
+        <v>0.1616770134947025</v>
       </c>
       <c r="E85">
-        <v>0.06414980685031269</v>
+        <v>-0.005245119917765576</v>
       </c>
       <c r="F85">
-        <v>0.141179652084642</v>
+        <v>0.1347582903879717</v>
       </c>
       <c r="G85">
-        <v>-0.04571486478168389</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1378015694864783</v>
+      </c>
+      <c r="H85">
+        <v>-0.09032734597290211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.004977125167486274</v>
+        <v>-0.02221737505665884</v>
       </c>
       <c r="C86">
-        <v>-0.00430992099636132</v>
+        <v>-8.707951029194475e-05</v>
       </c>
       <c r="D86">
-        <v>0.01876594664887327</v>
+        <v>0.004807291150724553</v>
       </c>
       <c r="E86">
-        <v>0.05656049766897881</v>
+        <v>0.009524736925984829</v>
       </c>
       <c r="F86">
-        <v>-0.05853249384203104</v>
+        <v>-0.01870042191880673</v>
       </c>
       <c r="G86">
-        <v>-0.007219048845047069</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.06346982778100134</v>
+      </c>
+      <c r="H86">
+        <v>0.07571052664994572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03834417787154312</v>
+        <v>-0.03004525613016856</v>
       </c>
       <c r="C87">
-        <v>-0.00603907383855259</v>
+        <v>0.003488091302436035</v>
       </c>
       <c r="D87">
-        <v>0.002306509765372415</v>
+        <v>0.02967399081292109</v>
       </c>
       <c r="E87">
-        <v>0.04660194187560125</v>
+        <v>-0.005815999881292428</v>
       </c>
       <c r="F87">
-        <v>-0.1018992018786698</v>
+        <v>0.004401525934420604</v>
       </c>
       <c r="G87">
-        <v>-0.04354897677896784</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08067564108629149</v>
+      </c>
+      <c r="H87">
+        <v>0.06952298747178599</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01116392608152704</v>
+        <v>-0.03778564425984317</v>
       </c>
       <c r="C88">
-        <v>0.004006729706046101</v>
+        <v>-0.01021942823699258</v>
       </c>
       <c r="D88">
-        <v>-0.01786798360492198</v>
+        <v>0.006367441900561039</v>
       </c>
       <c r="E88">
-        <v>-0.002629735719796938</v>
+        <v>-0.009283124244636317</v>
       </c>
       <c r="F88">
-        <v>-0.01176569700206748</v>
+        <v>0.01095035765201673</v>
       </c>
       <c r="G88">
-        <v>-0.04849618618680926</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.005469067096602001</v>
+      </c>
+      <c r="H88">
+        <v>0.008081478659024569</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08884717459449859</v>
+        <v>-0.2436906754035445</v>
       </c>
       <c r="C89">
-        <v>-0.04571411503165237</v>
+        <v>0.03815661150070011</v>
       </c>
       <c r="D89">
-        <v>-0.1640477942909766</v>
+        <v>-0.3518314552364119</v>
       </c>
       <c r="E89">
-        <v>-0.2572616111044311</v>
+        <v>0.04587495258972849</v>
       </c>
       <c r="F89">
-        <v>-0.1315476860808096</v>
+        <v>-0.06524050161166078</v>
       </c>
       <c r="G89">
-        <v>0.006137286115541003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03201843755500375</v>
+      </c>
+      <c r="H89">
+        <v>-0.01693111554316851</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07688822229301866</v>
+        <v>-0.1956840065790184</v>
       </c>
       <c r="C90">
-        <v>-0.07035851218784232</v>
+        <v>0.03077896160705569</v>
       </c>
       <c r="D90">
-        <v>-0.2126999048018452</v>
+        <v>-0.3082109788263607</v>
       </c>
       <c r="E90">
-        <v>-0.2603033473312196</v>
+        <v>0.03468850613546152</v>
       </c>
       <c r="F90">
-        <v>-0.09456937592011834</v>
+        <v>-0.0798163290258581</v>
       </c>
       <c r="G90">
-        <v>0.00748822725503779</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0357397971239182</v>
+      </c>
+      <c r="H90">
+        <v>-0.06667473730454315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3097354950709602</v>
+        <v>-0.2341211537487431</v>
       </c>
       <c r="C91">
-        <v>0.1441339682043242</v>
+        <v>0.1051191539202832</v>
       </c>
       <c r="D91">
-        <v>-0.03619287089494833</v>
+        <v>0.1506291470246882</v>
       </c>
       <c r="E91">
-        <v>0.02954436235893862</v>
+        <v>-0.003516442940944483</v>
       </c>
       <c r="F91">
-        <v>0.2404330975943802</v>
+        <v>0.1415555560863005</v>
       </c>
       <c r="G91">
-        <v>0.02799456993436459</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1467921063773336</v>
+      </c>
+      <c r="H91">
+        <v>-0.1661257435626409</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1662183774349281</v>
+        <v>-0.2389546722307089</v>
       </c>
       <c r="C92">
-        <v>-0.01930895157804618</v>
+        <v>0.09301548028974362</v>
       </c>
       <c r="D92">
-        <v>-0.2928902732387088</v>
+        <v>-0.2375578872727252</v>
       </c>
       <c r="E92">
-        <v>-0.3632735766298783</v>
+        <v>0.01998450360648324</v>
       </c>
       <c r="F92">
-        <v>0.04181129152683007</v>
+        <v>-0.03397296250999995</v>
       </c>
       <c r="G92">
-        <v>-0.5973352223757452</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.004266336217396378</v>
+      </c>
+      <c r="H92">
+        <v>-0.1582995710252317</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08224494063786686</v>
+        <v>-0.2207820334122483</v>
       </c>
       <c r="C93">
-        <v>-0.0732697177412496</v>
+        <v>0.04340673200939829</v>
       </c>
       <c r="D93">
-        <v>-0.2453110298078215</v>
+        <v>-0.332527192979171</v>
       </c>
       <c r="E93">
-        <v>-0.385098444350536</v>
+        <v>0.05939997432182038</v>
       </c>
       <c r="F93">
-        <v>-0.06379040848460495</v>
+        <v>-0.08880713719902497</v>
       </c>
       <c r="G93">
-        <v>0.08684064781524338</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03622387135512233</v>
+      </c>
+      <c r="H93">
+        <v>-0.01731011552554199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3019657861689525</v>
+        <v>-0.2595724372721766</v>
       </c>
       <c r="C94">
-        <v>0.2133751070939921</v>
+        <v>0.09685274632763623</v>
       </c>
       <c r="D94">
-        <v>-0.08331212280372274</v>
+        <v>0.1459518968559235</v>
       </c>
       <c r="E94">
-        <v>0.04230366515883429</v>
+        <v>0.004702941074591037</v>
       </c>
       <c r="F94">
-        <v>0.2133490245428375</v>
+        <v>0.1898831297440029</v>
       </c>
       <c r="G94">
-        <v>0.07354711610834276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1396574534698257</v>
+      </c>
+      <c r="H94">
+        <v>-0.1866162801193633</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06875556771429414</v>
+        <v>-0.05288978749255876</v>
       </c>
       <c r="C95">
-        <v>0.0249914595098398</v>
+        <v>0.02905335530450464</v>
       </c>
       <c r="D95">
-        <v>0.0963322503586951</v>
+        <v>0.08593160014257223</v>
       </c>
       <c r="E95">
-        <v>0.06682920244553334</v>
+        <v>0.07978749094484626</v>
       </c>
       <c r="F95">
-        <v>0.001685558994805812</v>
+        <v>0.007487841514390061</v>
       </c>
       <c r="G95">
-        <v>-0.1383558176054527</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.03326873974937802</v>
+      </c>
+      <c r="H95">
+        <v>0.04136424118903608</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1847608862972689</v>
+        <v>-0.1822235656898672</v>
       </c>
       <c r="C98">
-        <v>-0.005242133678815614</v>
+        <v>0.07005227509602083</v>
       </c>
       <c r="D98">
-        <v>0.02809719688355256</v>
+        <v>0.03391333944525744</v>
       </c>
       <c r="E98">
-        <v>-0.07562554451699914</v>
+        <v>0.04556360048847444</v>
       </c>
       <c r="F98">
-        <v>-0.1461587060891067</v>
+        <v>0.002070171504575904</v>
       </c>
       <c r="G98">
-        <v>0.3268794470290984</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07469403124572319</v>
+      </c>
+      <c r="H98">
+        <v>0.3765453283746767</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007430618391262927</v>
+        <v>-0.01536758625622521</v>
       </c>
       <c r="C101">
-        <v>0.02414387306476254</v>
+        <v>-0.0005580316852495447</v>
       </c>
       <c r="D101">
-        <v>0.0236306835332978</v>
+        <v>0.0061695569590391</v>
       </c>
       <c r="E101">
-        <v>0.1107802742602084</v>
+        <v>-0.005548938503046499</v>
       </c>
       <c r="F101">
-        <v>-0.1447987370478636</v>
+        <v>0.01632798294738435</v>
       </c>
       <c r="G101">
-        <v>-0.182581722602623</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1110731813934273</v>
+      </c>
+      <c r="H101">
+        <v>-0.03103315715568069</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1073852587949824</v>
+        <v>-0.1051941265954766</v>
       </c>
       <c r="C102">
-        <v>0.06695833012665804</v>
+        <v>0.03530262930644017</v>
       </c>
       <c r="D102">
-        <v>0.001566896974603413</v>
+        <v>0.07862733415189785</v>
       </c>
       <c r="E102">
-        <v>0.04363782533089876</v>
+        <v>-0.005979068302271399</v>
       </c>
       <c r="F102">
-        <v>0.1218657610549046</v>
+        <v>0.06923498607782053</v>
       </c>
       <c r="G102">
-        <v>0.001215412903653181</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07869001409180534</v>
+      </c>
+      <c r="H102">
+        <v>-0.07011573640615296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02726336236759483</v>
+        <v>-0.01971898276130213</v>
       </c>
       <c r="C103">
-        <v>0.01502028889593284</v>
+        <v>0.007658942825341419</v>
       </c>
       <c r="D103">
-        <v>-0.001952898497865577</v>
+        <v>0.01690727664774695</v>
       </c>
       <c r="E103">
-        <v>0.01304321391925451</v>
+        <v>-0.01126160166007959</v>
       </c>
       <c r="F103">
-        <v>0.007871354329853362</v>
+        <v>0.01363755263126772</v>
       </c>
       <c r="G103">
-        <v>-0.0331159434309433</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0007514542711086558</v>
+      </c>
+      <c r="H103">
+        <v>-0.008525689350492483</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2723789969087592</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9450778081363982</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.01492095691982285</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03741087283884408</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1445008561446838</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01159054177258144</v>
+      </c>
+      <c r="H104">
+        <v>-0.03813342771530764</v>
       </c>
     </row>
   </sheetData>
